--- a/data_craw/quarter/balance_sheet_quarter/bab.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/bab.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545563000000</v>
+        <v>535354000000</v>
       </c>
       <c r="C4" t="n">
-        <v>568407000000</v>
+        <v>638946000000</v>
       </c>
       <c r="D4" t="n">
-        <v>555459000000</v>
+        <v>557748000000</v>
       </c>
       <c r="E4" t="n">
-        <v>594938000000</v>
+        <v>675876000000</v>
       </c>
       <c r="F4" t="n">
-        <v>535354000000</v>
+        <v>689047000000</v>
       </c>
       <c r="G4" t="n">
-        <v>638946000000</v>
+        <v>649952000000</v>
       </c>
       <c r="H4" t="n">
-        <v>557748000000</v>
+        <v>644742000000</v>
       </c>
       <c r="I4" t="n">
-        <v>675876000000</v>
+        <v>683228000000</v>
       </c>
       <c r="J4" t="n">
-        <v>689047000000</v>
+        <v>596229000000</v>
       </c>
       <c r="K4" t="n">
-        <v>649952000000</v>
+        <v>711783000000</v>
       </c>
       <c r="L4" t="n">
-        <v>644742000000</v>
+        <v>652760000000</v>
       </c>
       <c r="M4" t="n">
-        <v>683228000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>596229000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>711783000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>652760000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>546913000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -674,53 +666,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>501990000000</v>
+        <v>687539000000</v>
       </c>
       <c r="C7" t="n">
-        <v>495075000000</v>
+        <v>730267000000</v>
       </c>
       <c r="D7" t="n">
-        <v>282826000000</v>
+        <v>1242491000000</v>
       </c>
       <c r="E7" t="n">
-        <v>259428000000</v>
+        <v>503902000000</v>
       </c>
       <c r="F7" t="n">
-        <v>687539000000</v>
+        <v>1007951000000</v>
       </c>
       <c r="G7" t="n">
-        <v>730267000000</v>
+        <v>1023135000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1242491000000</v>
+        <v>599843000000</v>
       </c>
       <c r="I7" t="n">
-        <v>503902000000</v>
+        <v>1085333000000</v>
       </c>
       <c r="J7" t="n">
-        <v>1007951000000</v>
+        <v>264722000000</v>
       </c>
       <c r="K7" t="n">
-        <v>1023135000000</v>
+        <v>786421000000</v>
       </c>
       <c r="L7" t="n">
-        <v>599843000000</v>
+        <v>428582000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1085333000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>264722000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>786421000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>428582000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>568759000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -798,53 +782,45 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6824808000000</v>
+        <v>9825684000000</v>
       </c>
       <c r="C11" t="n">
-        <v>12520555000000</v>
+        <v>12379375000000</v>
       </c>
       <c r="D11" t="n">
-        <v>10673116000000</v>
+        <v>8551377000000</v>
       </c>
       <c r="E11" t="n">
-        <v>11756754000000</v>
+        <v>7382779000000</v>
       </c>
       <c r="F11" t="n">
-        <v>9825684000000</v>
+        <v>10572184000000</v>
       </c>
       <c r="G11" t="n">
-        <v>12379375000000</v>
+        <v>10596053000000</v>
       </c>
       <c r="H11" t="n">
-        <v>8551377000000</v>
+        <v>8526146000000</v>
       </c>
       <c r="I11" t="n">
-        <v>7382779000000</v>
+        <v>9880337000000</v>
       </c>
       <c r="J11" t="n">
-        <v>10572184000000</v>
+        <v>10375806000000</v>
       </c>
       <c r="K11" t="n">
-        <v>10596053000000</v>
+        <v>11894805000000</v>
       </c>
       <c r="L11" t="n">
-        <v>8526146000000</v>
+        <v>8804063000000</v>
       </c>
       <c r="M11" t="n">
-        <v>9880337000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>10375806000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>11894805000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8804063000000</v>
-      </c>
-      <c r="Q11" t="n">
         <v>8112918000000</v>
       </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -853,53 +829,45 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6156838000000</v>
+        <v>9625684000000</v>
       </c>
       <c r="C12" t="n">
-        <v>12062775000000</v>
+        <v>11778379000000</v>
       </c>
       <c r="D12" t="n">
-        <v>10578091000000</v>
+        <v>8551377000000</v>
       </c>
       <c r="E12" t="n">
-        <v>11037455000000</v>
+        <v>5246995000000</v>
       </c>
       <c r="F12" t="n">
-        <v>9625684000000</v>
+        <v>9763977000000</v>
       </c>
       <c r="G12" t="n">
-        <v>11778379000000</v>
+        <v>8680350000000</v>
       </c>
       <c r="H12" t="n">
-        <v>8551377000000</v>
+        <v>5927380000000</v>
       </c>
       <c r="I12" t="n">
-        <v>5246995000000</v>
+        <v>7916851000000</v>
       </c>
       <c r="J12" t="n">
-        <v>9763977000000</v>
+        <v>8691955000000</v>
       </c>
       <c r="K12" t="n">
-        <v>8680350000000</v>
+        <v>11037227000000</v>
       </c>
       <c r="L12" t="n">
-        <v>5927380000000</v>
+        <v>8804063000000</v>
       </c>
       <c r="M12" t="n">
-        <v>7916851000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8691955000000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>11037227000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>8804063000000</v>
-      </c>
-      <c r="Q12" t="n">
         <v>8112918000000</v>
       </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -908,43 +876,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>667970000000</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
-        <v>95025000000</v>
-      </c>
+        <v>200000000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>600996000000</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>719299000000</v>
+        <v>2135784000000</v>
       </c>
       <c r="F13" t="n">
-        <v>200000000000</v>
+        <v>808207000000</v>
       </c>
       <c r="G13" t="n">
-        <v>600996000000</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+        <v>1915703000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2598766000000</v>
+      </c>
       <c r="I13" t="n">
-        <v>2135784000000</v>
+        <v>1963486000000</v>
       </c>
       <c r="J13" t="n">
-        <v>808207000000</v>
+        <v>1683851000000</v>
       </c>
       <c r="K13" t="n">
-        <v>1915703000000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2598766000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1963486000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1683851000000</v>
-      </c>
-      <c r="O13" t="n">
         <v>857578000000</v>
       </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
     </row>
@@ -1070,9 +1032,7 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>457780000000</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1095,53 +1055,45 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3237223000000</v>
+        <v>6782471000000</v>
       </c>
       <c r="C20" t="n">
-        <v>3136500000000</v>
+        <v>7851382000000</v>
       </c>
       <c r="D20" t="n">
-        <v>5912867000000</v>
+        <v>8574657000000</v>
       </c>
       <c r="E20" t="n">
-        <v>5631202000000</v>
+        <v>9666500000000</v>
       </c>
       <c r="F20" t="n">
-        <v>6782471000000</v>
+        <v>7443959000000</v>
       </c>
       <c r="G20" t="n">
-        <v>7851382000000</v>
+        <v>8528001000000</v>
       </c>
       <c r="H20" t="n">
-        <v>8574657000000</v>
+        <v>7209778000000</v>
       </c>
       <c r="I20" t="n">
-        <v>9666500000000</v>
+        <v>8488000000000</v>
       </c>
       <c r="J20" t="n">
-        <v>7443959000000</v>
+        <v>5350000000000</v>
       </c>
       <c r="K20" t="n">
-        <v>8528001000000</v>
+        <v>4768290000000</v>
       </c>
       <c r="L20" t="n">
-        <v>7209778000000</v>
+        <v>12369647000000</v>
       </c>
       <c r="M20" t="n">
-        <v>8488000000000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5350000000000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4768290000000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>12369647000000</v>
-      </c>
-      <c r="Q20" t="n">
         <v>14736003000000</v>
       </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1150,53 +1102,45 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3237223000000</v>
+        <v>6782471000000</v>
       </c>
       <c r="C21" t="n">
-        <v>3136500000000</v>
+        <v>7851382000000</v>
       </c>
       <c r="D21" t="n">
-        <v>5912867000000</v>
+        <v>8574657000000</v>
       </c>
       <c r="E21" t="n">
-        <v>5631202000000</v>
+        <v>9666500000000</v>
       </c>
       <c r="F21" t="n">
-        <v>6782471000000</v>
+        <v>7443959000000</v>
       </c>
       <c r="G21" t="n">
-        <v>7851382000000</v>
+        <v>8528001000000</v>
       </c>
       <c r="H21" t="n">
-        <v>8574657000000</v>
+        <v>7209778000000</v>
       </c>
       <c r="I21" t="n">
-        <v>9666500000000</v>
+        <v>8488000000000</v>
       </c>
       <c r="J21" t="n">
-        <v>7443959000000</v>
+        <v>5350000000000</v>
       </c>
       <c r="K21" t="n">
-        <v>8528001000000</v>
+        <v>4768290000000</v>
       </c>
       <c r="L21" t="n">
-        <v>7209778000000</v>
+        <v>12369647000000</v>
       </c>
       <c r="M21" t="n">
-        <v>8488000000000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5350000000000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4768290000000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>12369647000000</v>
-      </c>
-      <c r="Q21" t="n">
         <v>14736003000000</v>
       </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1212,13 +1156,13 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>12220681000000</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>12220681000000</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1230,49 +1174,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9107000000</v>
+        <v>12273000000</v>
       </c>
       <c r="C23" t="n">
-        <v>27641000000</v>
+        <v>9739000000</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>19373000000</v>
+        <v>13170000000</v>
       </c>
       <c r="F23" t="n">
-        <v>12273000000</v>
+        <v>18919000000</v>
       </c>
       <c r="G23" t="n">
-        <v>9739000000</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>5097000000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>11451000000</v>
+      </c>
       <c r="I23" t="n">
-        <v>13170000000</v>
+        <v>37309000000</v>
       </c>
       <c r="J23" t="n">
-        <v>18919000000</v>
+        <v>25728000000</v>
       </c>
       <c r="K23" t="n">
-        <v>5097000000</v>
+        <v>103023000000</v>
       </c>
       <c r="L23" t="n">
-        <v>11451000000</v>
+        <v>81902000000</v>
       </c>
       <c r="M23" t="n">
-        <v>37309000000</v>
-      </c>
-      <c r="N23" t="n">
-        <v>25728000000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>103023000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>81902000000</v>
-      </c>
-      <c r="Q23" t="n">
         <v>138964000000</v>
       </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1422,50 +1360,42 @@
         <v>268660000000</v>
       </c>
       <c r="C30" t="n">
-        <v>268660000000</v>
+        <v>193660000000</v>
       </c>
       <c r="D30" t="n">
-        <v>268660000000</v>
+        <v>193660000000</v>
       </c>
       <c r="E30" t="n">
-        <v>268660000000</v>
+        <v>179847000000</v>
       </c>
       <c r="F30" t="n">
-        <v>268660000000</v>
+        <v>147032000000</v>
       </c>
       <c r="G30" t="n">
-        <v>193660000000</v>
+        <v>147032000000</v>
       </c>
       <c r="H30" t="n">
-        <v>193660000000</v>
+        <v>147032000000</v>
       </c>
       <c r="I30" t="n">
-        <v>179847000000</v>
+        <v>142878000000</v>
       </c>
       <c r="J30" t="n">
-        <v>147032000000</v>
+        <v>142878000000</v>
       </c>
       <c r="K30" t="n">
-        <v>147032000000</v>
+        <v>142878000000</v>
       </c>
       <c r="L30" t="n">
-        <v>147032000000</v>
+        <v>142878000000</v>
       </c>
       <c r="M30" t="n">
         <v>142878000000</v>
       </c>
-      <c r="N30" t="n">
-        <v>142878000000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>142878000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>142878000000</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>142878000000</v>
-      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1524,13 +1454,13 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>162845000000</v>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>162845000000</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -1545,34 +1475,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>303672000000</v>
+        <v>270660000000</v>
       </c>
       <c r="C34" t="n">
-        <v>270660000000</v>
+        <v>195660000000</v>
       </c>
       <c r="D34" t="n">
-        <v>270660000000</v>
+        <v>195660000000</v>
       </c>
       <c r="E34" t="n">
-        <v>270660000000</v>
+        <v>195660000000</v>
       </c>
       <c r="F34" t="n">
-        <v>270660000000</v>
+        <v>162844000000</v>
       </c>
       <c r="G34" t="n">
-        <v>195660000000</v>
+        <v>-15813000000</v>
       </c>
       <c r="H34" t="n">
-        <v>195660000000</v>
+        <v>162845000000</v>
       </c>
       <c r="I34" t="n">
-        <v>195660000000</v>
+        <v>162845000000</v>
       </c>
       <c r="J34" t="n">
-        <v>162844000000</v>
+        <v>162845000000</v>
       </c>
       <c r="K34" t="n">
-        <v>-15813000000</v>
+        <v>162845000000</v>
       </c>
       <c r="L34" t="n">
         <v>162845000000</v>
@@ -1580,18 +1510,10 @@
       <c r="M34" t="n">
         <v>162845000000</v>
       </c>
-      <c r="N34" t="n">
-        <v>162845000000</v>
-      </c>
-      <c r="O34" t="n">
-        <v>162845000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>162845000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>162845000000</v>
-      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1646,7 +1568,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-35012000000</v>
+        <v>-2000000000</v>
       </c>
       <c r="C37" t="n">
         <v>-2000000000</v>
@@ -1655,42 +1577,34 @@
         <v>-2000000000</v>
       </c>
       <c r="E37" t="n">
-        <v>-2000000000</v>
+        <v>-15813000000</v>
       </c>
       <c r="F37" t="n">
-        <v>-2000000000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-2000000000</v>
-      </c>
+        <v>-15812000000</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-2000000000</v>
+        <v>-15813000000</v>
       </c>
       <c r="I37" t="n">
-        <v>-15813000000</v>
+        <v>-19967000000</v>
       </c>
       <c r="J37" t="n">
-        <v>-15812000000</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
+        <v>-19967000000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-19967000000</v>
+      </c>
       <c r="L37" t="n">
-        <v>-15813000000</v>
+        <v>-19967000000</v>
       </c>
       <c r="M37" t="n">
         <v>-19967000000</v>
       </c>
-      <c r="N37" t="n">
-        <v>-19967000000</v>
-      </c>
-      <c r="O37" t="n">
-        <v>-19967000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-19967000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-19967000000</v>
-      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1699,53 +1613,45 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>646837000000</v>
+        <v>718279000000</v>
       </c>
       <c r="C38" t="n">
-        <v>671020000000</v>
+        <v>726014000000</v>
       </c>
       <c r="D38" t="n">
-        <v>675935000000</v>
+        <v>724754000000</v>
       </c>
       <c r="E38" t="n">
-        <v>724592000000</v>
+        <v>724653000000</v>
       </c>
       <c r="F38" t="n">
-        <v>718279000000</v>
+        <v>715860000000</v>
       </c>
       <c r="G38" t="n">
-        <v>726014000000</v>
+        <v>759258000000</v>
       </c>
       <c r="H38" t="n">
-        <v>724754000000</v>
+        <v>766063000000</v>
       </c>
       <c r="I38" t="n">
-        <v>724653000000</v>
+        <v>756096000000</v>
       </c>
       <c r="J38" t="n">
-        <v>715860000000</v>
+        <v>763209000000</v>
       </c>
       <c r="K38" t="n">
-        <v>759258000000</v>
+        <v>761286000000</v>
       </c>
       <c r="L38" t="n">
-        <v>766063000000</v>
+        <v>773657000000</v>
       </c>
       <c r="M38" t="n">
-        <v>756096000000</v>
-      </c>
-      <c r="N38" t="n">
-        <v>763209000000</v>
-      </c>
-      <c r="O38" t="n">
-        <v>761286000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>773657000000</v>
-      </c>
-      <c r="Q38" t="n">
         <v>1043472000000</v>
       </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1754,53 +1660,45 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>108424000000</v>
+        <v>144461000000</v>
       </c>
       <c r="C39" t="n">
-        <v>132437000000</v>
+        <v>149708000000</v>
       </c>
       <c r="D39" t="n">
-        <v>138705000000</v>
+        <v>149864000000</v>
       </c>
       <c r="E39" t="n">
-        <v>149292000000</v>
+        <v>147984000000</v>
       </c>
       <c r="F39" t="n">
-        <v>144461000000</v>
+        <v>140784000000</v>
       </c>
       <c r="G39" t="n">
-        <v>149708000000</v>
+        <v>174474000000</v>
       </c>
       <c r="H39" t="n">
-        <v>149864000000</v>
+        <v>181304000000</v>
       </c>
       <c r="I39" t="n">
-        <v>147984000000</v>
+        <v>173362000000</v>
       </c>
       <c r="J39" t="n">
-        <v>140784000000</v>
+        <v>179155000000</v>
       </c>
       <c r="K39" t="n">
-        <v>174474000000</v>
+        <v>177211000000</v>
       </c>
       <c r="L39" t="n">
-        <v>181304000000</v>
+        <v>175100000000</v>
       </c>
       <c r="M39" t="n">
-        <v>173362000000</v>
-      </c>
-      <c r="N39" t="n">
-        <v>179155000000</v>
-      </c>
-      <c r="O39" t="n">
-        <v>177211000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>175100000000</v>
-      </c>
-      <c r="Q39" t="n">
         <v>180035000000</v>
       </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1809,53 +1707,45 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>312101000000</v>
+        <v>371480000000</v>
       </c>
       <c r="C40" t="n">
-        <v>342831000000</v>
+        <v>383691000000</v>
       </c>
       <c r="D40" t="n">
-        <v>355001000000</v>
+        <v>391350000000</v>
       </c>
       <c r="E40" t="n">
-        <v>370422000000</v>
+        <v>396688000000</v>
       </c>
       <c r="F40" t="n">
-        <v>371480000000</v>
+        <v>396850000000</v>
       </c>
       <c r="G40" t="n">
-        <v>383691000000</v>
+        <v>439063000000</v>
       </c>
       <c r="H40" t="n">
-        <v>391350000000</v>
+        <v>453430000000</v>
       </c>
       <c r="I40" t="n">
-        <v>396688000000</v>
+        <v>453166000000</v>
       </c>
       <c r="J40" t="n">
-        <v>396850000000</v>
+        <v>465910000000</v>
       </c>
       <c r="K40" t="n">
-        <v>439063000000</v>
+        <v>472778000000</v>
       </c>
       <c r="L40" t="n">
-        <v>453430000000</v>
+        <v>478717000000</v>
       </c>
       <c r="M40" t="n">
-        <v>453166000000</v>
-      </c>
-      <c r="N40" t="n">
-        <v>465910000000</v>
-      </c>
-      <c r="O40" t="n">
-        <v>472778000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>478717000000</v>
-      </c>
-      <c r="Q40" t="n">
         <v>492107000000</v>
       </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1864,53 +1754,45 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-203677000000</v>
+        <v>-227019000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-210394000000</v>
+        <v>-233983000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-216296000000</v>
+        <v>-241486000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-221130000000</v>
+        <v>-248704000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-227019000000</v>
+        <v>-256066000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-233983000000</v>
+        <v>-264589000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-241486000000</v>
+        <v>-272126000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-248704000000</v>
+        <v>-279804000000</v>
       </c>
       <c r="J41" t="n">
-        <v>-256066000000</v>
+        <v>-286755000000</v>
       </c>
       <c r="K41" t="n">
-        <v>-264589000000</v>
+        <v>-295567000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-272126000000</v>
+        <v>-303617000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-279804000000</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-286755000000</v>
-      </c>
-      <c r="O41" t="n">
-        <v>-295567000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-303617000000</v>
-      </c>
-      <c r="Q41" t="n">
         <v>-312072000000</v>
       </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1988,53 +1870,45 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>538413000000</v>
+        <v>573818000000</v>
       </c>
       <c r="C45" t="n">
-        <v>538583000000</v>
+        <v>576306000000</v>
       </c>
       <c r="D45" t="n">
-        <v>537230000000</v>
+        <v>574890000000</v>
       </c>
       <c r="E45" t="n">
-        <v>575300000000</v>
+        <v>576669000000</v>
       </c>
       <c r="F45" t="n">
-        <v>573818000000</v>
+        <v>575076000000</v>
       </c>
       <c r="G45" t="n">
-        <v>576306000000</v>
+        <v>584784000000</v>
       </c>
       <c r="H45" t="n">
-        <v>574890000000</v>
+        <v>584759000000</v>
       </c>
       <c r="I45" t="n">
-        <v>576669000000</v>
+        <v>582734000000</v>
       </c>
       <c r="J45" t="n">
-        <v>575076000000</v>
+        <v>584054000000</v>
       </c>
       <c r="K45" t="n">
-        <v>584784000000</v>
+        <v>584075000000</v>
       </c>
       <c r="L45" t="n">
-        <v>584759000000</v>
+        <v>598557000000</v>
       </c>
       <c r="M45" t="n">
-        <v>582734000000</v>
-      </c>
-      <c r="N45" t="n">
-        <v>584054000000</v>
-      </c>
-      <c r="O45" t="n">
-        <v>584075000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>598557000000</v>
-      </c>
-      <c r="Q45" t="n">
         <v>863437000000</v>
       </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2043,53 +1917,45 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614129000000</v>
+        <v>655756000000</v>
       </c>
       <c r="C46" t="n">
-        <v>616328000000</v>
+        <v>659744000000</v>
       </c>
       <c r="D46" t="n">
-        <v>616328000000</v>
+        <v>659787000000</v>
       </c>
       <c r="E46" t="n">
-        <v>655755000000</v>
+        <v>663076000000</v>
       </c>
       <c r="F46" t="n">
-        <v>655756000000</v>
+        <v>663110000000</v>
       </c>
       <c r="G46" t="n">
-        <v>659744000000</v>
+        <v>674463000000</v>
       </c>
       <c r="H46" t="n">
-        <v>659787000000</v>
+        <v>676543000000</v>
       </c>
       <c r="I46" t="n">
-        <v>663076000000</v>
+        <v>676543000000</v>
       </c>
       <c r="J46" t="n">
-        <v>663110000000</v>
+        <v>679973000000</v>
       </c>
       <c r="K46" t="n">
-        <v>674463000000</v>
+        <v>682213000000</v>
       </c>
       <c r="L46" t="n">
-        <v>676543000000</v>
+        <v>699518000000</v>
       </c>
       <c r="M46" t="n">
-        <v>676543000000</v>
-      </c>
-      <c r="N46" t="n">
-        <v>679973000000</v>
-      </c>
-      <c r="O46" t="n">
-        <v>682213000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>699518000000</v>
-      </c>
-      <c r="Q46" t="n">
         <v>967188000000</v>
       </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2098,53 +1964,45 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-75716000000</v>
+        <v>-81938000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-77745000000</v>
+        <v>-83438000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-79098000000</v>
+        <v>-84897000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-80455000000</v>
+        <v>-86407000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-81938000000</v>
+        <v>-88034000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-83438000000</v>
+        <v>-89679000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-84897000000</v>
+        <v>-91784000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-86407000000</v>
+        <v>-93809000000</v>
       </c>
       <c r="J47" t="n">
-        <v>-88034000000</v>
+        <v>-95919000000</v>
       </c>
       <c r="K47" t="n">
-        <v>-89679000000</v>
+        <v>-98138000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-91784000000</v>
+        <v>-100961000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-93809000000</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-95919000000</v>
-      </c>
-      <c r="O47" t="n">
-        <v>-98138000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-100961000000</v>
-      </c>
-      <c r="Q47" t="n">
         <v>-103751000000</v>
       </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2222,13 +2080,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7802000000</v>
+        <v>3683000000</v>
       </c>
       <c r="C51" t="n">
-        <v>7802000000</v>
+        <v>3683000000</v>
       </c>
       <c r="D51" t="n">
-        <v>7804000000</v>
+        <v>3683000000</v>
       </c>
       <c r="E51" t="n">
         <v>3683000000</v>
@@ -2237,38 +2095,30 @@
         <v>3683000000</v>
       </c>
       <c r="G51" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="K51" t="n">
         <v>3683000000</v>
       </c>
-      <c r="H51" t="n">
+      <c r="L51" t="n">
         <v>3683000000</v>
       </c>
-      <c r="I51" t="n">
+      <c r="M51" t="n">
         <v>3683000000</v>
       </c>
-      <c r="J51" t="n">
-        <v>3683000000</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="L51" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="M51" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="N51" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="O51" t="n">
-        <v>3683000000</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3683000000</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3683000000</v>
-      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2277,13 +2127,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7802000000</v>
+        <v>3683000000</v>
       </c>
       <c r="C52" t="n">
-        <v>7802000000</v>
+        <v>3683000000</v>
       </c>
       <c r="D52" t="n">
-        <v>7804000000</v>
+        <v>3683000000</v>
       </c>
       <c r="E52" t="n">
         <v>3683000000</v>
@@ -2292,38 +2142,30 @@
         <v>3683000000</v>
       </c>
       <c r="G52" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="I52" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>14461000000</v>
+      </c>
+      <c r="K52" t="n">
         <v>3683000000</v>
       </c>
-      <c r="H52" t="n">
+      <c r="L52" t="n">
         <v>3683000000</v>
       </c>
-      <c r="I52" t="n">
+      <c r="M52" t="n">
         <v>3683000000</v>
       </c>
-      <c r="J52" t="n">
-        <v>3683000000</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="L52" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="M52" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="N52" t="n">
-        <v>14461000000</v>
-      </c>
-      <c r="O52" t="n">
-        <v>3683000000</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3683000000</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3683000000</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2355,53 +2197,45 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4206714000000</v>
+        <v>3165657000000</v>
       </c>
       <c r="C54" t="n">
-        <v>3186852000000</v>
+        <v>2821972000000</v>
       </c>
       <c r="D54" t="n">
-        <v>3727509000000</v>
+        <v>3127345000000</v>
       </c>
       <c r="E54" t="n">
-        <v>2999089000000</v>
+        <v>3255029000000</v>
       </c>
       <c r="F54" t="n">
-        <v>3165657000000</v>
+        <v>3418374000000</v>
       </c>
       <c r="G54" t="n">
-        <v>2821972000000</v>
+        <v>2664770000000</v>
       </c>
       <c r="H54" t="n">
-        <v>3127345000000</v>
+        <v>3083747000000</v>
       </c>
       <c r="I54" t="n">
-        <v>3255029000000</v>
+        <v>3101562000000</v>
       </c>
       <c r="J54" t="n">
-        <v>3418374000000</v>
+        <v>2902843000000</v>
       </c>
       <c r="K54" t="n">
-        <v>2664770000000</v>
+        <v>3604154000000</v>
       </c>
       <c r="L54" t="n">
-        <v>3083747000000</v>
+        <v>4304867000000</v>
       </c>
       <c r="M54" t="n">
-        <v>3101562000000</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2902843000000</v>
-      </c>
-      <c r="O54" t="n">
-        <v>3604154000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4304867000000</v>
-      </c>
-      <c r="Q54" t="n">
         <v>4073345000000</v>
       </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2410,53 +2244,45 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>196908000000</v>
+        <v>222954000000</v>
       </c>
       <c r="C55" t="n">
-        <v>156153000000</v>
+        <v>215793000000</v>
       </c>
       <c r="D55" t="n">
-        <v>154325000000</v>
+        <v>227368000000</v>
       </c>
       <c r="E55" t="n">
-        <v>177140000000</v>
+        <v>264156000000</v>
       </c>
       <c r="F55" t="n">
-        <v>222954000000</v>
+        <v>215870000000</v>
       </c>
       <c r="G55" t="n">
-        <v>215793000000</v>
+        <v>191405000000</v>
       </c>
       <c r="H55" t="n">
-        <v>227368000000</v>
+        <v>191174000000</v>
       </c>
       <c r="I55" t="n">
-        <v>264156000000</v>
+        <v>485890000000</v>
       </c>
       <c r="J55" t="n">
-        <v>215870000000</v>
+        <v>547482000000</v>
       </c>
       <c r="K55" t="n">
-        <v>191405000000</v>
+        <v>663436000000</v>
       </c>
       <c r="L55" t="n">
-        <v>191174000000</v>
+        <v>620365000000</v>
       </c>
       <c r="M55" t="n">
-        <v>485890000000</v>
-      </c>
-      <c r="N55" t="n">
-        <v>547482000000</v>
-      </c>
-      <c r="O55" t="n">
-        <v>663436000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>620365000000</v>
-      </c>
-      <c r="Q55" t="n">
         <v>288426000000</v>
       </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2465,53 +2291,45 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3970468000000</v>
+        <v>2903844000000</v>
       </c>
       <c r="C56" t="n">
-        <v>2988252000000</v>
+        <v>2566810000000</v>
       </c>
       <c r="D56" t="n">
-        <v>3531615000000</v>
+        <v>2858697000000</v>
       </c>
       <c r="E56" t="n">
-        <v>2782863000000</v>
+        <v>2952081000000</v>
       </c>
       <c r="F56" t="n">
-        <v>2903844000000</v>
+        <v>3167450000000</v>
       </c>
       <c r="G56" t="n">
-        <v>2566810000000</v>
+        <v>2438595000000</v>
       </c>
       <c r="H56" t="n">
-        <v>2858697000000</v>
+        <v>2857314000000</v>
       </c>
       <c r="I56" t="n">
-        <v>2952081000000</v>
+        <v>2580813000000</v>
       </c>
       <c r="J56" t="n">
-        <v>3167450000000</v>
+        <v>2312401000000</v>
       </c>
       <c r="K56" t="n">
-        <v>2438595000000</v>
+        <v>2891257000000</v>
       </c>
       <c r="L56" t="n">
-        <v>2857314000000</v>
+        <v>3626294000000</v>
       </c>
       <c r="M56" t="n">
-        <v>2580813000000</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2312401000000</v>
-      </c>
-      <c r="O56" t="n">
-        <v>2891257000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3626294000000</v>
-      </c>
-      <c r="Q56" t="n">
         <v>3726777000000</v>
       </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2520,53 +2338,45 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2502000000</v>
+        <v>1785000000</v>
       </c>
       <c r="C57" t="n">
-        <v>2502000000</v>
+        <v>1785000000</v>
       </c>
       <c r="D57" t="n">
-        <v>1785000000</v>
+        <v>833000000</v>
       </c>
       <c r="E57" t="n">
-        <v>1785000000</v>
+        <v>833000000</v>
       </c>
       <c r="F57" t="n">
-        <v>1785000000</v>
+        <v>833000000</v>
       </c>
       <c r="G57" t="n">
-        <v>1785000000</v>
+        <v>83000000</v>
       </c>
       <c r="H57" t="n">
-        <v>833000000</v>
+        <v>83000000</v>
       </c>
       <c r="I57" t="n">
-        <v>833000000</v>
+        <v>82000000</v>
       </c>
       <c r="J57" t="n">
-        <v>833000000</v>
+        <v>81000000</v>
       </c>
       <c r="K57" t="n">
-        <v>83000000</v>
+        <v>81000000</v>
       </c>
       <c r="L57" t="n">
-        <v>83000000</v>
+        <v>82000000</v>
       </c>
       <c r="M57" t="n">
         <v>82000000</v>
       </c>
-      <c r="N57" t="n">
-        <v>81000000</v>
-      </c>
-      <c r="O57" t="n">
-        <v>81000000</v>
-      </c>
-      <c r="P57" t="n">
-        <v>82000000</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>82000000</v>
-      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2575,53 +2385,45 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>36836000000</v>
+        <v>37074000000</v>
       </c>
       <c r="C58" t="n">
-        <v>39945000000</v>
+        <v>37584000000</v>
       </c>
       <c r="D58" t="n">
-        <v>39784000000</v>
+        <v>40447000000</v>
       </c>
       <c r="E58" t="n">
-        <v>37301000000</v>
+        <v>37959000000</v>
       </c>
       <c r="F58" t="n">
-        <v>37074000000</v>
+        <v>34221000000</v>
       </c>
       <c r="G58" t="n">
-        <v>37584000000</v>
+        <v>34687000000</v>
       </c>
       <c r="H58" t="n">
-        <v>40447000000</v>
+        <v>35176000000</v>
       </c>
       <c r="I58" t="n">
-        <v>37959000000</v>
+        <v>34977000000</v>
       </c>
       <c r="J58" t="n">
-        <v>34221000000</v>
+        <v>42879000000</v>
       </c>
       <c r="K58" t="n">
-        <v>34687000000</v>
+        <v>49380000000</v>
       </c>
       <c r="L58" t="n">
-        <v>35176000000</v>
+        <v>58126000000</v>
       </c>
       <c r="M58" t="n">
-        <v>34977000000</v>
-      </c>
-      <c r="N58" t="n">
-        <v>42879000000</v>
-      </c>
-      <c r="O58" t="n">
-        <v>49380000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>58126000000</v>
-      </c>
-      <c r="Q58" t="n">
         <v>58060000000</v>
       </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2837,53 +2639,45 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100178911000000</v>
+        <v>112041844000000</v>
       </c>
       <c r="C68" t="n">
-        <v>107892774000000</v>
+        <v>117192248000000</v>
       </c>
       <c r="D68" t="n">
-        <v>109828721000000</v>
+        <v>108809172000000</v>
       </c>
       <c r="E68" t="n">
-        <v>110927827000000</v>
+        <v>111282902000000</v>
       </c>
       <c r="F68" t="n">
-        <v>112041844000000</v>
+        <v>111350577000000</v>
       </c>
       <c r="G68" t="n">
-        <v>117192248000000</v>
+        <v>119791806000000</v>
       </c>
       <c r="H68" t="n">
-        <v>108809172000000</v>
+        <v>117077868000000</v>
       </c>
       <c r="I68" t="n">
-        <v>111282902000000</v>
+        <v>124204479000000</v>
       </c>
       <c r="J68" t="n">
-        <v>111350577000000</v>
+        <v>124092667000000</v>
       </c>
       <c r="K68" t="n">
-        <v>119791806000000</v>
+        <v>128827228000000</v>
       </c>
       <c r="L68" t="n">
-        <v>117077868000000</v>
+        <v>133851621000000</v>
       </c>
       <c r="M68" t="n">
-        <v>124204479000000</v>
-      </c>
-      <c r="N68" t="n">
-        <v>124092667000000</v>
-      </c>
-      <c r="O68" t="n">
-        <v>128827228000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>133851621000000</v>
-      </c>
-      <c r="Q68" t="n">
         <v>135266042000000</v>
       </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2892,53 +2686,45 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>198764000000</v>
+        <v>161298000000</v>
       </c>
       <c r="C69" t="n">
-        <v>196047000000</v>
+        <v>147537000000</v>
       </c>
       <c r="D69" t="n">
-        <v>191823000000</v>
+        <v>135527000000</v>
       </c>
       <c r="E69" t="n">
-        <v>179153000000</v>
+        <v>121876000000</v>
       </c>
       <c r="F69" t="n">
-        <v>161298000000</v>
+        <v>108535000000</v>
       </c>
       <c r="G69" t="n">
-        <v>147537000000</v>
+        <v>95504000000</v>
       </c>
       <c r="H69" t="n">
-        <v>135527000000</v>
+        <v>84155000000</v>
       </c>
       <c r="I69" t="n">
-        <v>121876000000</v>
+        <v>72465000000</v>
       </c>
       <c r="J69" t="n">
-        <v>108535000000</v>
+        <v>61953000000</v>
       </c>
       <c r="K69" t="n">
-        <v>95504000000</v>
+        <v>52584000000</v>
       </c>
       <c r="L69" t="n">
-        <v>84155000000</v>
+        <v>45122000000</v>
       </c>
       <c r="M69" t="n">
-        <v>72465000000</v>
-      </c>
-      <c r="N69" t="n">
-        <v>61953000000</v>
-      </c>
-      <c r="O69" t="n">
-        <v>52584000000</v>
-      </c>
-      <c r="P69" t="n">
-        <v>45122000000</v>
-      </c>
-      <c r="Q69" t="n">
         <v>37580000000</v>
       </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3154,53 +2940,45 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9648012000000</v>
+        <v>4787465000000</v>
       </c>
       <c r="C79" t="n">
-        <v>14658448000000</v>
+        <v>13231963000000</v>
       </c>
       <c r="D79" t="n">
-        <v>9660428000000</v>
+        <v>2317212000000</v>
       </c>
       <c r="E79" t="n">
-        <v>8675942000000</v>
+        <v>2711674000000</v>
       </c>
       <c r="F79" t="n">
-        <v>4787465000000</v>
+        <v>3456730000000</v>
       </c>
       <c r="G79" t="n">
-        <v>13231963000000</v>
+        <v>9086568000000</v>
       </c>
       <c r="H79" t="n">
-        <v>2317212000000</v>
+        <v>4902690000000</v>
       </c>
       <c r="I79" t="n">
-        <v>2711674000000</v>
+        <v>6564043000000</v>
       </c>
       <c r="J79" t="n">
-        <v>3456730000000</v>
+        <v>8158000000000</v>
       </c>
       <c r="K79" t="n">
-        <v>9086568000000</v>
+        <v>11090139000000</v>
       </c>
       <c r="L79" t="n">
-        <v>4902690000000</v>
+        <v>9793929000000</v>
       </c>
       <c r="M79" t="n">
-        <v>6564043000000</v>
-      </c>
-      <c r="N79" t="n">
-        <v>8158000000000</v>
-      </c>
-      <c r="O79" t="n">
-        <v>11090139000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>9793929000000</v>
-      </c>
-      <c r="Q79" t="n">
         <v>9599105000000</v>
       </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3209,53 +2987,45 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9016504000000</v>
+        <v>4757529000000</v>
       </c>
       <c r="C80" t="n">
-        <v>13067379000000</v>
+        <v>13231030000000</v>
       </c>
       <c r="D80" t="n">
-        <v>9329404000000</v>
+        <v>2308504000000</v>
       </c>
       <c r="E80" t="n">
-        <v>8445932000000</v>
+        <v>2695264000000</v>
       </c>
       <c r="F80" t="n">
-        <v>4757529000000</v>
+        <v>3433990000000</v>
       </c>
       <c r="G80" t="n">
-        <v>13231030000000</v>
+        <v>9060479000000</v>
       </c>
       <c r="H80" t="n">
-        <v>2308504000000</v>
+        <v>4874997000000</v>
       </c>
       <c r="I80" t="n">
-        <v>2695264000000</v>
+        <v>6036338000000</v>
       </c>
       <c r="J80" t="n">
-        <v>3433990000000</v>
+        <v>7823608000000</v>
       </c>
       <c r="K80" t="n">
-        <v>9060479000000</v>
+        <v>11047110000000</v>
       </c>
       <c r="L80" t="n">
-        <v>4874997000000</v>
+        <v>9348369000000</v>
       </c>
       <c r="M80" t="n">
-        <v>6036338000000</v>
-      </c>
-      <c r="N80" t="n">
-        <v>7823608000000</v>
-      </c>
-      <c r="O80" t="n">
-        <v>11047110000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>9348369000000</v>
-      </c>
-      <c r="Q80" t="n">
         <v>9001424000000</v>
       </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3264,53 +3034,45 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>631508000000</v>
+        <v>29936000000</v>
       </c>
       <c r="C81" t="n">
-        <v>1591069000000</v>
+        <v>933000000</v>
       </c>
       <c r="D81" t="n">
-        <v>331024000000</v>
+        <v>8708000000</v>
       </c>
       <c r="E81" t="n">
-        <v>230010000000</v>
+        <v>16410000000</v>
       </c>
       <c r="F81" t="n">
-        <v>29936000000</v>
+        <v>22740000000</v>
       </c>
       <c r="G81" t="n">
-        <v>933000000</v>
+        <v>26089000000</v>
       </c>
       <c r="H81" t="n">
-        <v>8708000000</v>
+        <v>27693000000</v>
       </c>
       <c r="I81" t="n">
-        <v>16410000000</v>
+        <v>527705000000</v>
       </c>
       <c r="J81" t="n">
-        <v>22740000000</v>
+        <v>334392000000</v>
       </c>
       <c r="K81" t="n">
-        <v>26089000000</v>
+        <v>43029000000</v>
       </c>
       <c r="L81" t="n">
-        <v>27693000000</v>
+        <v>445560000000</v>
       </c>
       <c r="M81" t="n">
-        <v>527705000000</v>
-      </c>
-      <c r="N81" t="n">
-        <v>334392000000</v>
-      </c>
-      <c r="O81" t="n">
-        <v>43029000000</v>
-      </c>
-      <c r="P81" t="n">
-        <v>445560000000</v>
-      </c>
-      <c r="Q81" t="n">
         <v>597681000000</v>
       </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3365,53 +3127,45 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>75679700000000</v>
+        <v>86904471000000</v>
       </c>
       <c r="C84" t="n">
-        <v>76163271000000</v>
+        <v>86442223000000</v>
       </c>
       <c r="D84" t="n">
-        <v>82476400000000</v>
+        <v>89642999000000</v>
       </c>
       <c r="E84" t="n">
-        <v>84278168000000</v>
+        <v>90921982000000</v>
       </c>
       <c r="F84" t="n">
-        <v>86904471000000</v>
+        <v>90970498000000</v>
       </c>
       <c r="G84" t="n">
-        <v>86442223000000</v>
+        <v>93440398000000</v>
       </c>
       <c r="H84" t="n">
-        <v>89642999000000</v>
+        <v>95031417000000</v>
       </c>
       <c r="I84" t="n">
-        <v>90921982000000</v>
+        <v>97167705000000</v>
       </c>
       <c r="J84" t="n">
-        <v>90970498000000</v>
+        <v>95698678000000</v>
       </c>
       <c r="K84" t="n">
-        <v>93440398000000</v>
+        <v>96904601000000</v>
       </c>
       <c r="L84" t="n">
-        <v>95031417000000</v>
+        <v>101654531000000</v>
       </c>
       <c r="M84" t="n">
-        <v>97167705000000</v>
-      </c>
-      <c r="N84" t="n">
-        <v>95698678000000</v>
-      </c>
-      <c r="O84" t="n">
-        <v>96904601000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>101654531000000</v>
-      </c>
-      <c r="Q84" t="n">
         <v>105366284000000</v>
       </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3629,14 +3383,12 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>8783000000</v>
+        <v>9981000000</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="n">
-        <v>9981000000</v>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3723,53 +3475,45 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>92594884000000</v>
+        <v>103847837000000</v>
       </c>
       <c r="C98" t="n">
-        <v>100074524000000</v>
+        <v>108822263000000</v>
       </c>
       <c r="D98" t="n">
-        <v>101870899000000</v>
+        <v>100261776000000</v>
       </c>
       <c r="E98" t="n">
-        <v>102830141000000</v>
+        <v>102609749000000</v>
       </c>
       <c r="F98" t="n">
-        <v>103847837000000</v>
+        <v>102464153000000</v>
       </c>
       <c r="G98" t="n">
-        <v>108822263000000</v>
+        <v>110740663000000</v>
       </c>
       <c r="H98" t="n">
-        <v>100261776000000</v>
+        <v>107830109000000</v>
       </c>
       <c r="I98" t="n">
-        <v>102609749000000</v>
+        <v>114878324000000</v>
       </c>
       <c r="J98" t="n">
-        <v>102464153000000</v>
+        <v>114551862000000</v>
       </c>
       <c r="K98" t="n">
-        <v>110740663000000</v>
+        <v>118999845000000</v>
       </c>
       <c r="L98" t="n">
-        <v>107830109000000</v>
+        <v>123782107000000</v>
       </c>
       <c r="M98" t="n">
-        <v>114878324000000</v>
-      </c>
-      <c r="N98" t="n">
-        <v>114551862000000</v>
-      </c>
-      <c r="O98" t="n">
-        <v>118999845000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>123782107000000</v>
-      </c>
-      <c r="Q98" t="n">
         <v>124871538000000</v>
       </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3801,53 +3545,45 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5500000000000</v>
+        <v>7085000000</v>
       </c>
       <c r="C100" t="n">
-        <v>6500000000000</v>
+        <v>7085000000000</v>
       </c>
       <c r="D100" t="n">
-        <v>6500000000000</v>
+        <v>7085000000000</v>
       </c>
       <c r="E100" t="n">
-        <v>6500000000000</v>
+        <v>7085000000000</v>
       </c>
       <c r="F100" t="n">
-        <v>7085000000</v>
+        <v>7531355000000</v>
       </c>
       <c r="G100" t="n">
-        <v>7085000000000</v>
+        <v>7531355000000</v>
       </c>
       <c r="H100" t="n">
-        <v>7085000000000</v>
+        <v>7531355000000</v>
       </c>
       <c r="I100" t="n">
-        <v>7085000000000</v>
+        <v>7531355000000</v>
       </c>
       <c r="J100" t="n">
-        <v>7531355000000</v>
+        <v>8133863000000</v>
       </c>
       <c r="K100" t="n">
-        <v>7531355000000</v>
+        <v>8133863000000</v>
       </c>
       <c r="L100" t="n">
-        <v>7531355000000</v>
+        <v>8133863000000</v>
       </c>
       <c r="M100" t="n">
-        <v>7531355000000</v>
-      </c>
-      <c r="N100" t="n">
-        <v>8133863000000</v>
-      </c>
-      <c r="O100" t="n">
-        <v>8133863000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>8133863000000</v>
-      </c>
-      <c r="Q100" t="n">
         <v>8334266000000</v>
       </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3930,41 +3666,33 @@
       <c r="C104" t="n">
         <v>7398000000</v>
       </c>
-      <c r="D104" t="n">
-        <v>7398000000</v>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
         <v>7398000000</v>
       </c>
-      <c r="F104" t="n">
-        <v>7398000000</v>
-      </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
         <v>7398000000</v>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>7398000000</v>
+      </c>
       <c r="I104" t="n">
         <v>7398000000</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>7398000000</v>
+      </c>
       <c r="K104" t="n">
         <v>7398000000</v>
       </c>
       <c r="L104" t="n">
         <v>7398000000</v>
       </c>
-      <c r="M104" t="n">
-        <v>7398000000</v>
-      </c>
-      <c r="N104" t="n">
-        <v>7398000000</v>
-      </c>
-      <c r="O104" t="n">
-        <v>7398000000</v>
-      </c>
-      <c r="P104" t="n">
-        <v>7398000000</v>
-      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
       <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
@@ -3975,26 +3703,26 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="n">
+        <v>7398000000</v>
+      </c>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
+      <c r="F105" t="n">
+        <v>7398000000</v>
+      </c>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="n">
-        <v>7398000000</v>
-      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>7398000000</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>107600000000</v>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="n">
-        <v>107600000000</v>
-      </c>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4118,53 +3846,45 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>501584000000</v>
+        <v>598482000000</v>
       </c>
       <c r="C111" t="n">
-        <v>486509000000</v>
+        <v>598482000000</v>
       </c>
       <c r="D111" t="n">
-        <v>486509000000</v>
+        <v>598482000000</v>
       </c>
       <c r="E111" t="n">
-        <v>486509000000</v>
+        <v>686254000000</v>
       </c>
       <c r="F111" t="n">
-        <v>598482000000</v>
+        <v>686254000000</v>
       </c>
       <c r="G111" t="n">
-        <v>598482000000</v>
+        <v>686254000000</v>
       </c>
       <c r="H111" t="n">
-        <v>598482000000</v>
+        <v>686254000000</v>
       </c>
       <c r="I111" t="n">
-        <v>686254000000</v>
+        <v>794817000000</v>
       </c>
       <c r="J111" t="n">
-        <v>686254000000</v>
+        <v>794817000000</v>
       </c>
       <c r="K111" t="n">
-        <v>686254000000</v>
+        <v>794817000000</v>
       </c>
       <c r="L111" t="n">
-        <v>686254000000</v>
+        <v>794817000000</v>
       </c>
       <c r="M111" t="n">
-        <v>794817000000</v>
-      </c>
-      <c r="N111" t="n">
-        <v>794817000000</v>
-      </c>
-      <c r="O111" t="n">
-        <v>794817000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>794817000000</v>
-      </c>
-      <c r="Q111" t="n">
         <v>918864000000</v>
       </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
